--- a/GS3.xlsx
+++ b/GS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\SURP-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB55233-1D1F-4B23-ACB6-CB5D9069DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537453B6-3635-496B-AD81-75BC1279B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <r>
       <rPr>
@@ -2508,1002 +2508,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>What do you understand by the term “Innovation”? Discuss the need for launching a national innovation in India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Keeping in view the informal sector’s share in the total workforce in the country, critically examine the relevant inclusive measures initiated by the Government of India and their effectiveness.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">In the context of the growing demands for the ban of Endosulfan in the country, critically examine the issues involved.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What, in your view, should be done in the matter?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>‘The issues of tourism in core areas of tiger reserve forests in the country is a subject matter of debate. Critically examine various aspects of this issue, keeping in view relevant recent judicial pronouncements.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Domestic resource mobilization, though central to the process of Indian economic growth, is characterized by several constraints.” Explain.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">What do you understand by the term “Multi-Drug Resistant Tuberculosis” (MDR-TB)? What measures would you
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>advocate for its containment and what are the implications of its spread in the community?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Many food items contain ‘trans fats’. What do you understand by this term? Which Indian food items contain Trans fats?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the implications of trans fats on human health?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Significance of the SPOT-6 rocket launch for ISRO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Analyse critically the interlinkages between the Convention on Biological Diversity and FAO Treaty on Plant Genetic Resources for Food and Agriculture.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Critically review the international concern in achieving the target set for the Minimum Development Goals.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discuss the likely negative impact of the protectionist measure proposed by the US on India’s software industry.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Despite strict prohibitory regulations, “doping” has become increasingly common amongst athletes. Name five commonly used performanceenhancing drugs. What are the risks associated with their use?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What is Perm culture? Give at least three common examples where permaculture concepts are being put to use.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Sequoias supercomputer was launched this year. What are its specific features and what its purpose?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Human Papilloma Virus vaccine has been making the headlines in the recent months. Who make the ideal candidates for receiving this vaccine and what are its benefits?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Explain the concepts “Environmental Sustainability” and “Sustainable Development of People”?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Explain briefly the “Clean Development Mechanism” as provided under the United Nations Framework Convention on Climate Change (UNFCCC).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the salient features of the PCPNDT Act, 1994, and the implications of its amendment in 2003.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Salient recommendations of the
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>RBI-appointed Damodaran committee on customer service in Banks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Benefits and potential drawbacks of 'cash-transfers' to 'Below Poverty Line' (BPL) households.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>New initiatives during the 11th Five Year Plan in the National Programme for Control of Blindness (NPCB).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>The impact of climate change on water resources in India.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Measures taken by the Indian government to combat piracy in the Indian Ocean.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Phase-IV of the tiger monitoring programme in India.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Why the Central Statistics Office has notified a new series of Consumer Price Index from this year ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Composition and functions of the National Executive Committee of the National Disaster Management Authority.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: The Telecommunications Ministry's proposed Spectrum Management Commission.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on following in not more than 50 words each: Nisarga-Runa technology of BARC.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: The first-aid that you can safely administer to a person standing next to you at the bus-stop who suddenly faints.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: The Kaveri K-10 aero-engine.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Molecular Breast Imaging (MBI) technology.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Trace the progress of India's efforts for a joint. counter-terrorism strategy with China. What are the likely implications of the recent Xinjiang violence on these efforts?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the importance of the 'Small and Medium Enterprises Expo and Conference' held in Dubai last year for Indian business.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>In the context of the Euro-zone' debt crisis, examine the proposed 'six-pack' solution. Do you think that this has a better chance of success than the earlier Stability and Growth Pact?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: International Year of Chemistry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: The scourge of e-waste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: 'Designer' poultry eggs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: INSPIRE programme of the Department of Science and Technology</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: The 'Kessler syndrome' with reference to space debris</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: Omega-3 fatty acids in our food</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: Difference between 'spin-drying' and 'tumble-drying' technology with reference to drying of washed clothes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: The diminishing population of vultures</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: 'Arsenic-bug' and the significance of its discovery F-22 Raptor aircraft</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: 'Concentrated' solar energy and 'photovoltaic' solar energy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: Analog, hybrid and IP systems in CCTV technology</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: Various applications of Kevlar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on any thirteen of the following in about 50 words each: Differences between Compact Disc (CD), Digital Versatile Disc (DVD) and Blu-ray Disc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in about 50 words each:Functions of the World Customs Organisation (WCO)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in about 50 words each: World Food Programme (WFP) of the United Nations (UN)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? Tiangong-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? K-computer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? Gliese 581 g</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? MABEL robot</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? 'Operation Shady Rat'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? 'SAGA-220'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? 'Billion Acts of Green'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? OPERA detector at Gran Sasso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have each of the following been in the news recently? Saturn's Titan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the spatial components in urban solid waste management in the country.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the salient features of the evolution and the current status of the ‘Bharat Stage’ vehicle emission norms in the country.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>After the September Ist changes, do you think that Unit Linked Insurance Plans (ULIPs) and Mutual Funds (MFs) are on a level playing field ? Substantiate your answer from the perspective of an ordinary investor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What do you understand by ‘repo rate’ and ‘reverse repo rate? What are the implications in raising these rates?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>List any eight ‘Ramsar’ wetland sites located in India. What is the ‘Montreux Record’ and what Indian sites are included in this Record?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Are the ‘Dedicated Freight Corridor’ railway project and the ‘Golden Quadrilateral’ road project mutually complementary or competitive ? Assess.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the recent HFC-23 emissions controversy that includes in its ambit some Indian companies.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the recommendations of the Wadhwa Commission on the Public Distribution System.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the sectoral and state-wise distribution patterns of Foreign Direct Investment (FDI) inflows into the country.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the salient features of The National Oil Soil Disaster Contingency Plan?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>National Investment Fund</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluate India’s approach towards meeting the country’s growing energy demands. Compare the success of this approach with that of another Asian giant which has perhaps the fastest growing energy demands.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the FDI and employment implications of China being a manufacturing hub and India a services hub?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Have the Uruguay Round negotiations and the resultant Trade Related Intellectual Property Rights (TRIPS) agreement helped in resolving trade conflicts arising out of variations in different nations’ IPR regimes? Also list the steps taken by India to conform to TRIPS.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Compare and contrast the role of the IMF with that of the World Bank.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the significance of GDI and GEM as components of the UN’s Human Development Report (HDR). Comment on India’s relative rankings with regard to HDI and GDI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What is ‘Round Tripping’ in the context of FDI inflow, and why has it been in the news recently in the case of India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>In the context of the United Nations Framework Convention on Climate Change (UNFCCC), distinguish between ‘Annex I’ and ‘Annex II’ countries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the reasons for the recent economic crisis in the so-called ‘PIGS’ countries of Europe.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the present status of the Biological Weapons Convention (BWC). What important issues, do you think, need to be taken up at the seventh review conference of the BWC scheduled for 2011?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bring out the applications of computer models in studying climate changes, with special reference to the Community Earth System Model (CESM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What is phytoremediation ? Discuss its applications.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Explain and differentiate among ‘Plasma’, ‘LCD’ and ‘LED’ television technologies.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What is ‘cloud computing’? Bring out its essential features and list its advantages and limitations.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discuss the applications of nanotechnology in the health care sector.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Rotterdam Convention</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: MRSA infection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: HRP-2M Choromet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Maglev vehicles</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Super absorbent polymers (SAP)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: CARTOSAT-2B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the following in not more than 50 words each: Various generations of mobile phone technology</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your answers should be in a sentence or two only): Wolfram Alpha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your answers should be in a sentence or two only): ‘Dreamliner’ aircraft</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your answers should be in a sentence or two only): Blue gene project</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your answers should be in a sentence or two only): ‘Predator’ drones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your answers should be in a sentence or two only):‘Deepwater Horizon’ incident</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Who/What are the following and why have they been in the news recently? (Your</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>“Investment in infrastructure is essential for more rapid and inclusive economic</t>
     </r>
     <r>
@@ -3654,40 +2658,6 @@
         <rFont val="Arial MT"/>
       </rPr>
       <t xml:space="preserve"> management in commodity trade pattern of the economy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>The safe landing of the “Curiosity” Rover under NASA’s space programme has sparked many possibilities. What are</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve"> these and how could humankind benefit from them?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the salient features of the recent (-aft Model Real Estate (Regulation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve"> of Development) Ac of the Ministry of Housing and Urban Poverty Alleviation of the Central Government.</t>
     </r>
   </si>
   <si>
@@ -4127,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4199,7 +3169,7 @@
         <v>2023</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="78" customHeight="1">
@@ -4559,7 +3529,7 @@
         <v>2021</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="96.75" customHeight="1">
@@ -4623,7 +3593,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="78" customHeight="1">
@@ -4951,7 +3921,7 @@
         <v>2018</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="96.75" customHeight="1">
@@ -5087,7 +4057,7 @@
         <v>2018</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="161.25" customHeight="1">
@@ -5135,7 +4105,7 @@
         <v>2017</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="96.75" customHeight="1">
@@ -5247,7 +4217,7 @@
         <v>2017</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="78" customHeight="1">
@@ -5487,7 +4457,7 @@
         <v>2015</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="96.75" customHeight="1">
@@ -5535,7 +4505,7 @@
         <v>2015</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="115.5" customHeight="1">
@@ -5663,7 +4633,7 @@
         <v>2014</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="125.25" customHeight="1">
@@ -5751,7 +4721,7 @@
         <v>2013</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="96.75" customHeight="1">
@@ -5815,7 +4785,7 @@
         <v>2013</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="115.5" customHeight="1">
@@ -5971,788 +4941,396 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A230" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A231" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A232" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="A232" s="3"/>
+      <c r="B232" s="6"/>
     </row>
     <row r="233" spans="1:2" ht="107.25" customHeight="1">
-      <c r="A233" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A234" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A235" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="A235" s="3"/>
+      <c r="B235" s="6"/>
     </row>
     <row r="236" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A236" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="A236" s="3"/>
+      <c r="B236" s="6"/>
     </row>
     <row r="237" spans="1:2" ht="39" customHeight="1">
-      <c r="A237" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="A237" s="7"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" ht="78" customHeight="1">
-      <c r="A238" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="A238" s="3"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A239" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="A239" s="3"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A240" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A241" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A242" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="A242" s="3"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A243" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A244" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A245" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A246" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" ht="78" customHeight="1">
-      <c r="A247" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A248" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A249" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A249" s="3"/>
+      <c r="B249" s="6"/>
     </row>
     <row r="250" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A250" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A251" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" ht="39" customHeight="1">
-      <c r="A252" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="A252" s="7"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" ht="39" customHeight="1">
-      <c r="A253" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="A253" s="7"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A254" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" ht="78" customHeight="1">
-      <c r="A255" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A256" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" ht="78" customHeight="1">
-      <c r="A257" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A258" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A259" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A260" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A261" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" ht="97.5" customHeight="1">
-      <c r="A262" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A263" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" ht="97.5" customHeight="1">
-      <c r="A264" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A265" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="A265" s="3"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A266" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="A266" s="3"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A267" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="A267" s="3"/>
+      <c r="B267" s="4"/>
     </row>
     <row r="268" spans="1:2" ht="78" customHeight="1">
-      <c r="A268" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="A268" s="3"/>
+      <c r="B268" s="4"/>
     </row>
     <row r="269" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A269" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="A269" s="3"/>
+      <c r="B269" s="4"/>
     </row>
     <row r="270" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A270" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>257</v>
-      </c>
+      <c r="A270" s="3"/>
+      <c r="B270" s="4"/>
     </row>
     <row r="271" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A271" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="A271" s="3"/>
+      <c r="B271" s="4"/>
     </row>
     <row r="272" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A272" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="A272" s="3"/>
+      <c r="B272" s="4"/>
     </row>
     <row r="273" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A273" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="A273" s="3"/>
+      <c r="B273" s="4"/>
     </row>
     <row r="274" spans="1:2" ht="78" customHeight="1">
-      <c r="A274" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="A274" s="3"/>
+      <c r="B274" s="4"/>
     </row>
     <row r="275" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A275" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="A275" s="3"/>
+      <c r="B275" s="4"/>
     </row>
     <row r="276" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A276" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A276" s="3"/>
+      <c r="B276" s="4"/>
     </row>
     <row r="277" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A277" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="A277" s="3"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A278" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="A278" s="3"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A279" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="A279" s="3"/>
+      <c r="B279" s="4"/>
     </row>
     <row r="280" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A280" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="A280" s="7"/>
+      <c r="B280" s="4"/>
     </row>
     <row r="281" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A281" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>268</v>
-      </c>
+      <c r="A281" s="3"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A282" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="A282" s="7"/>
+      <c r="B282" s="4"/>
     </row>
     <row r="283" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A283" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="A283" s="7"/>
+      <c r="B283" s="4"/>
     </row>
     <row r="284" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A284" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>271</v>
-      </c>
+      <c r="A284" s="3"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A285" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>272</v>
-      </c>
+      <c r="A285" s="3"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A286" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="A286" s="3"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A287" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>274</v>
-      </c>
+      <c r="A287" s="3"/>
+      <c r="B287" s="4"/>
     </row>
     <row r="288" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A288" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="A288" s="7"/>
+      <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A289" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="A289" s="3"/>
+      <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A290" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="A290" s="3"/>
+      <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A291" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="A291" s="3"/>
+      <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A292" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="A292" s="3"/>
+      <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" ht="78" customHeight="1">
-      <c r="A293" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="A293" s="3"/>
+      <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" ht="78" customHeight="1">
-      <c r="A294" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A294" s="3"/>
+      <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" ht="118.2" customHeight="1">
-      <c r="A295" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>326</v>
-      </c>
+      <c r="A295" s="7"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A296" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="A296" s="3"/>
+      <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A297" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="A297" s="3"/>
+      <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A298" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="A298" s="3"/>
+      <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A299" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="A299" s="3"/>
+      <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" ht="21" customHeight="1">
-      <c r="A300" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="A300" s="8"/>
+      <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A301" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="A301" s="3"/>
+      <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" ht="78" customHeight="1">
-      <c r="A302" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="A302" s="3"/>
+      <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" ht="143.25" customHeight="1">
-      <c r="A303" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="A303" s="3"/>
+      <c r="B303" s="4"/>
     </row>
     <row r="304" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A304" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="A304" s="3"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A305" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="A305" s="3"/>
+      <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A306" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="A306" s="3"/>
+      <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2" ht="78" customHeight="1">
-      <c r="A307" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="A307" s="3"/>
+      <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A308" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="A308" s="3"/>
+      <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A309" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>295</v>
-      </c>
+      <c r="A309" s="3"/>
+      <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2" ht="78" customHeight="1">
-      <c r="A310" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="A310" s="3"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A311" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="A311" s="7"/>
+      <c r="B311" s="4"/>
     </row>
     <row r="312" spans="1:2" ht="39" customHeight="1">
-      <c r="A312" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>298</v>
-      </c>
+      <c r="A312" s="7"/>
+      <c r="B312" s="4"/>
     </row>
     <row r="313" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A313" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="A313" s="3"/>
+      <c r="B313" s="4"/>
     </row>
     <row r="314" spans="1:2" ht="39" customHeight="1">
-      <c r="A314" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="A314" s="7"/>
+      <c r="B314" s="4"/>
     </row>
     <row r="315" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A315" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="A315" s="3"/>
+      <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" ht="39" customHeight="1">
-      <c r="A316" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="A316" s="7"/>
+      <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:2" ht="39" customHeight="1">
-      <c r="A317" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="A317" s="7"/>
+      <c r="B317" s="4"/>
     </row>
     <row r="318" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A318" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>304</v>
-      </c>
+      <c r="A318" s="7"/>
+      <c r="B318" s="4"/>
     </row>
     <row r="319" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A319" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="A319" s="3"/>
+      <c r="B319" s="4"/>
     </row>
     <row r="320" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A320" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="A320" s="7"/>
+      <c r="B320" s="4"/>
     </row>
     <row r="321" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A321" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="A321" s="3"/>
+      <c r="B321" s="4"/>
     </row>
     <row r="322" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A322" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="A322" s="3"/>
+      <c r="B322" s="4"/>
     </row>
     <row r="323" spans="1:2" ht="78" customHeight="1">
-      <c r="A323" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>309</v>
-      </c>
+      <c r="A323" s="3"/>
+      <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" ht="78" customHeight="1">
-      <c r="A324" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="A324" s="3"/>
+      <c r="B324" s="4"/>
     </row>
     <row r="325" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A325" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="A325" s="3"/>
+      <c r="B325" s="4"/>
     </row>
     <row r="326" spans="1:2" ht="78" customHeight="1">
-      <c r="A326" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="A326" s="3"/>
+      <c r="B326" s="4"/>
     </row>
     <row r="327" spans="1:2" ht="39" customHeight="1">
-      <c r="A327" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="A327" s="7"/>
+      <c r="B327" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
